--- a/rpa-master/rpa-master/5.뉴스레터 제작 발송/구독자목록.xlsx
+++ b/rpa-master/rpa-master/5.뉴스레터 제작 발송/구독자목록.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\big\RPA\rpa-master\rpa-master\5.뉴스레터 제작 발송\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="510" windowWidth="13410" windowHeight="11550"/>
   </bookViews>
@@ -39,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vitaminq42@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직급</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,7 +52,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hayaboy@naver.com</t>
+    <t>hayaboy77@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hayaboy@korea.ac.kr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,11 +103,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -415,7 +417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,7 +428,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -443,18 +445,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -465,48 +467,48 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
